--- a/biology/Botanique/Intsia_palembanica/Intsia_palembanica.xlsx
+++ b/biology/Botanique/Intsia_palembanica/Intsia_palembanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Intsia palembanica est une espèce végétale de la famille des Caesalpiniaceae, ou Fabaceae selon la classification phylogénique. C'est un grand arbre atteignant 50 m de hauteur. Il vit dans les forêts tropicales humides du sud-est asiatique. On le trouve dans les forêts de plaine à Diptérocarpacées, et jusqu'à 1 000 m d'altitude sur les stations qui lui conviennent. Il est appelé, de même que l'espèce Intsia bijuga, arbre de fer.
 Synonymes : Afzelia bakeri Prain, Afzelia palembanica (Miq.) Baker, Intsia acuminata auct., Intsia bakeri (Prain) Prain
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Asie tropicale :
 Nord de l'océan indien : Inde - îles Andaman-et-Nicobar
@@ -546,7 +560,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bois est dur et très durable. Il est souvent commercialisé sous le nom de merbau (qui est plus souvent issu de Intsia bijuga, le kohu).
 </t>
